--- a/maliyet_raporu.xlsx
+++ b/maliyet_raporu.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,134 +440,407 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Parça Adı</t>
+          <t>period</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Tür</t>
+          <t>toplam_maliyet</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Maliyet (TL)</t>
+          <t>ortalama_maliyet</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>sabit_gider</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>degisen_gider</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>parca_basi_maliyet</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>parca_basi_omur</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>en_cok_kullanilan_urun</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Üst Kapak</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Kapak</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1149.3</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>229.86</v>
+      </c>
+      <c r="D2" t="n">
+        <v>162.11</v>
+      </c>
+      <c r="E2" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>29.832</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4536.2</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Sol Tık</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Buton</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B3" t="n">
+        <v>992.37</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>198.474</v>
+      </c>
+      <c r="D3" t="n">
+        <v>108.48</v>
+      </c>
+      <c r="E3" t="n">
+        <v>64.64</v>
+      </c>
+      <c r="F3" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3759</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tablet</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Sağ Tık</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Buton</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B4" t="n">
+        <v>885.14</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>177.028</v>
+      </c>
+      <c r="D4" t="n">
+        <v>158.46</v>
+      </c>
+      <c r="E4" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>28.236</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7071.2</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Keyboard</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Tekerlek</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Kaydırma</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1307.71</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>186.8157142857143</v>
+      </c>
+      <c r="D5" t="n">
+        <v>220.55</v>
+      </c>
+      <c r="E5" t="n">
+        <v>176.59</v>
+      </c>
+      <c r="F5" t="n">
+        <v>26.40285714285714</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6712.714285714285</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Sensör</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sensör</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1998.44</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>181.6763636363636</v>
+      </c>
+      <c r="D6" t="n">
+        <v>325.89</v>
+      </c>
+      <c r="E6" t="n">
+        <v>188.92</v>
+      </c>
+      <c r="F6" t="n">
+        <v>28.59272727272727</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5055.909090909091</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Devre Kartı</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Elektronik</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1728.44</v>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>192.0488888888889</v>
+      </c>
+      <c r="D7" t="n">
+        <v>280.17</v>
+      </c>
+      <c r="E7" t="n">
+        <v>153.69</v>
+      </c>
+      <c r="F7" t="n">
+        <v>25.87888888888889</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6597.111111111111</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Laptop</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>USB Kablo</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Bağlantı</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1292.17</v>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>161.52125</v>
+      </c>
+      <c r="D8" t="n">
+        <v>189.42</v>
+      </c>
+      <c r="E8" t="n">
+        <v>135.44</v>
+      </c>
+      <c r="F8" t="n">
+        <v>30.1525</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8065.5</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tablet</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Toplam</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="A9" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B9" t="n">
+        <v>874.12</v>
+      </c>
       <c r="C9" t="n">
-        <v>92</v>
+        <v>174.824</v>
+      </c>
+      <c r="D9" t="n">
+        <v>126.94</v>
+      </c>
+      <c r="E9" t="n">
+        <v>85.84999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>38.624</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6690</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Laptop</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B10" t="n">
+        <v>721.24</v>
+      </c>
+      <c r="C10" t="n">
+        <v>144.248</v>
+      </c>
+      <c r="D10" t="n">
+        <v>120.77</v>
+      </c>
+      <c r="E10" t="n">
+        <v>67.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4550</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Monitor</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1312.11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>187.4442857142857</v>
+      </c>
+      <c r="D11" t="n">
+        <v>193.64</v>
+      </c>
+      <c r="E11" t="n">
+        <v>178.41</v>
+      </c>
+      <c r="F11" t="n">
+        <v>19.97428571428571</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6610.571428571428</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Monitor</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2248.88</v>
+      </c>
+      <c r="C12" t="n">
+        <v>160.6342857142857</v>
+      </c>
+      <c r="D12" t="n">
+        <v>380.67</v>
+      </c>
+      <c r="E12" t="n">
+        <v>293.27</v>
+      </c>
+      <c r="F12" t="n">
+        <v>25.97142857142857</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5719.714285714285</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Laptop</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1405.29</v>
+      </c>
+      <c r="C13" t="n">
+        <v>156.1433333333333</v>
+      </c>
+      <c r="D13" t="n">
+        <v>296.6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>164.71</v>
+      </c>
+      <c r="F13" t="n">
+        <v>20.97222222222222</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5416.888888888889</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1892.98</v>
+      </c>
+      <c r="C14" t="n">
+        <v>189.298</v>
+      </c>
+      <c r="D14" t="n">
+        <v>327.29</v>
+      </c>
+      <c r="E14" t="n">
+        <v>138.84</v>
+      </c>
+      <c r="F14" t="n">
+        <v>26.436</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4016.8</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Keyboard</t>
+        </is>
       </c>
     </row>
   </sheetData>
